--- a/public/data/original/TriDNA-original.xlsx
+++ b/public/data/original/TriDNA-original.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\0项目\0数据集\数据-合并最终版\数据表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3DEE44-FEA9-4C48-BEF8-1CA3DC600F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDAB7A3-54AB-4D07-94C5-E694F267EA18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -311,15 +311,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>REID0031,REID0032</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>REID0033</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>REID0034</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD0005-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>REID0032</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD0006-1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1284,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2335,9 +2343,11 @@
         <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12824394</v>
+      </c>
       <c r="E6">
         <v>6.3299999999999995E-2</v>
       </c>
@@ -2533,15 +2543,17 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8956078</v>
+      </c>
       <c r="E7">
         <v>6.3299999999999995E-2</v>
       </c>
@@ -2737,1237 +2749,1649 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1">
-        <v>7737131</v>
+        <v>12824394</v>
       </c>
       <c r="E8">
-        <v>6.8819999999999997</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="F8">
-        <v>5.26</v>
+        <v>2.6411500000000001</v>
       </c>
       <c r="G8">
-        <v>3.9950000000000001</v>
+        <v>4.6991500000000004</v>
       </c>
       <c r="H8">
-        <v>6.6980000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="I8">
-        <v>3.516</v>
+        <v>5.4903000000000004</v>
       </c>
       <c r="J8">
-        <v>3.6190000000000002</v>
+        <v>5.3160499999999997</v>
       </c>
       <c r="K8">
-        <v>3.625</v>
+        <v>5.3055000000000003</v>
       </c>
       <c r="L8">
-        <v>4.4710000000000001</v>
+        <v>3.9232</v>
       </c>
       <c r="M8">
-        <v>3.879</v>
+        <v>4.8883999999999999</v>
       </c>
       <c r="N8">
-        <v>2.6829999999999998</v>
+        <v>6.8829000000000002</v>
       </c>
       <c r="O8">
-        <v>3.782</v>
+        <v>5.0522999999999998</v>
       </c>
       <c r="P8">
-        <v>4.4710000000000001</v>
+        <v>3.9232</v>
       </c>
       <c r="Q8">
-        <v>3.0470000000000002</v>
+        <v>6.2733999999999996</v>
       </c>
       <c r="R8">
-        <v>4.1529999999999996</v>
+        <v>4.4432499999999999</v>
       </c>
       <c r="S8">
-        <v>2.1850000000000001</v>
+        <v>7.7171000000000003</v>
       </c>
       <c r="T8">
-        <v>6.6980000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="U8">
-        <v>3.9580000000000002</v>
+        <v>4.7618</v>
       </c>
       <c r="V8">
-        <v>2.8319999999999999</v>
+        <v>6.6255499999999996</v>
       </c>
       <c r="W8">
-        <v>2.6709999999999998</v>
+        <v>6.8996000000000004</v>
       </c>
       <c r="X8">
-        <v>2.1850000000000001</v>
+        <v>7.7171000000000003</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>3.0586500000000001</v>
       </c>
       <c r="Z8">
-        <v>3.3109999999999999</v>
+        <v>5.827</v>
       </c>
       <c r="AA8">
-        <v>4.5019999999999998</v>
+        <v>3.8690000000000002</v>
       </c>
       <c r="AB8">
-        <v>3.782</v>
+        <v>5.0522999999999998</v>
       </c>
       <c r="AC8">
-        <v>2.57</v>
+        <v>7.0719500000000002</v>
       </c>
       <c r="AD8">
-        <v>3.2749999999999999</v>
+        <v>5.8913500000000001</v>
       </c>
       <c r="AE8">
-        <v>4.5019999999999998</v>
+        <v>3.8690000000000002</v>
       </c>
       <c r="AF8">
-        <v>3.625</v>
+        <v>5.3055000000000003</v>
       </c>
       <c r="AG8">
-        <v>3.8130000000000002</v>
+        <v>5.0029500000000002</v>
       </c>
       <c r="AH8">
-        <v>3.2210000000000001</v>
+        <v>5.9805999999999999</v>
       </c>
       <c r="AI8">
-        <v>2.6709999999999998</v>
+        <v>6.8996000000000004</v>
       </c>
       <c r="AJ8">
-        <v>3.9950000000000001</v>
+        <v>4.6991500000000004</v>
       </c>
       <c r="AK8">
-        <v>4.3849999999999998</v>
+        <v>4.0632999999999999</v>
       </c>
       <c r="AL8">
-        <v>3.4980000000000002</v>
+        <v>5.5164499999999999</v>
       </c>
       <c r="AM8">
-        <v>3.2210000000000001</v>
+        <v>5.9805999999999999</v>
       </c>
       <c r="AN8">
-        <v>4.1529999999999996</v>
+        <v>4.4432499999999999</v>
       </c>
       <c r="AO8">
-        <v>2.754</v>
+        <v>6.7552500000000002</v>
       </c>
       <c r="AP8">
-        <v>1.387</v>
+        <v>9.0823</v>
       </c>
       <c r="AQ8">
-        <v>3.2749999999999999</v>
+        <v>5.8913500000000001</v>
       </c>
       <c r="AR8">
-        <v>2.6829999999999998</v>
+        <v>6.8829000000000002</v>
       </c>
       <c r="AS8">
-        <v>3.819</v>
+        <v>4.9907000000000004</v>
       </c>
       <c r="AT8">
-        <v>1.387</v>
+        <v>9.0823</v>
       </c>
       <c r="AU8">
-        <v>3.3109999999999999</v>
+        <v>5.827</v>
       </c>
       <c r="AV8">
-        <v>3.6190000000000002</v>
+        <v>5.3160499999999997</v>
       </c>
       <c r="AW8">
-        <v>3.77</v>
+        <v>5.0673000000000004</v>
       </c>
       <c r="AX8">
-        <v>3.4980000000000002</v>
+        <v>5.5164499999999999</v>
       </c>
       <c r="AY8">
-        <v>2.8319999999999999</v>
+        <v>6.6255499999999996</v>
       </c>
       <c r="AZ8">
-        <v>5.26</v>
+        <v>2.6411500000000001</v>
       </c>
       <c r="BA8">
-        <v>4.0129999999999999</v>
+        <v>4.6708999999999996</v>
       </c>
       <c r="BB8">
-        <v>3.77</v>
+        <v>5.0673000000000004</v>
       </c>
       <c r="BC8">
-        <v>3.8130000000000002</v>
+        <v>5.0029500000000002</v>
       </c>
       <c r="BD8">
-        <v>3.0470000000000002</v>
+        <v>6.2733999999999996</v>
       </c>
       <c r="BE8">
-        <v>2.1970000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BF8">
-        <v>3.819</v>
+        <v>4.9907000000000004</v>
       </c>
       <c r="BG8">
-        <v>2.57</v>
+        <v>7.0719500000000002</v>
       </c>
       <c r="BH8">
-        <v>3.879</v>
+        <v>4.8883999999999999</v>
       </c>
       <c r="BI8">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="BJ8">
-        <v>2.754</v>
+        <v>6.7552500000000002</v>
       </c>
       <c r="BK8">
-        <v>5</v>
+        <v>3.0586500000000001</v>
       </c>
       <c r="BL8">
-        <v>3.516</v>
+        <v>5.4903000000000004</v>
       </c>
       <c r="BM8">
-        <v>4.0129999999999999</v>
+        <v>4.6708999999999996</v>
       </c>
       <c r="BN8">
-        <v>4.3849999999999998</v>
+        <v>4.0632999999999999</v>
       </c>
       <c r="BO8">
-        <v>3.9580000000000002</v>
+        <v>4.7618</v>
       </c>
       <c r="BP8">
-        <v>0.1</v>
+        <v>6.3299999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1">
-        <v>7737131</v>
+        <v>8956078</v>
       </c>
       <c r="E9">
-        <v>7.1760000000000002</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="F9">
-        <v>6.2720000000000002</v>
+        <v>2.6411500000000001</v>
       </c>
       <c r="G9">
-        <v>4.7359999999999998</v>
+        <v>4.6991500000000004</v>
       </c>
       <c r="H9">
-        <v>7.2370000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="I9">
-        <v>3.81</v>
+        <v>5.4903000000000004</v>
       </c>
       <c r="J9">
-        <v>4.1559999999999997</v>
+        <v>5.3160499999999997</v>
       </c>
       <c r="K9">
-        <v>4.1559999999999997</v>
+        <v>5.3055000000000003</v>
       </c>
       <c r="L9">
-        <v>6.0330000000000004</v>
+        <v>3.9232</v>
       </c>
       <c r="M9">
-        <v>3.41</v>
+        <v>4.8883999999999999</v>
       </c>
       <c r="N9">
-        <v>3.524</v>
+        <v>6.8829000000000002</v>
       </c>
       <c r="O9">
-        <v>4.4450000000000003</v>
+        <v>5.0522999999999998</v>
       </c>
       <c r="P9">
-        <v>6.0330000000000004</v>
+        <v>3.9232</v>
       </c>
       <c r="Q9">
-        <v>1.613</v>
+        <v>6.2733999999999996</v>
       </c>
       <c r="R9">
-        <v>5.0869999999999997</v>
+        <v>4.4432499999999999</v>
       </c>
       <c r="S9">
-        <v>2.169</v>
+        <v>7.7171000000000003</v>
       </c>
       <c r="T9">
-        <v>7.2370000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="U9">
-        <v>3.581</v>
+        <v>4.7618</v>
       </c>
       <c r="V9">
-        <v>3.2389999999999999</v>
+        <v>6.6255499999999996</v>
       </c>
       <c r="W9">
-        <v>1.6679999999999999</v>
+        <v>6.8996000000000004</v>
       </c>
       <c r="X9">
-        <v>2.169</v>
+        <v>7.7171000000000003</v>
       </c>
       <c r="Y9">
-        <v>6.8129999999999997</v>
+        <v>3.0586500000000001</v>
       </c>
       <c r="Z9">
-        <v>3.8679999999999999</v>
+        <v>5.827</v>
       </c>
       <c r="AA9">
-        <v>5.44</v>
+        <v>3.8690000000000002</v>
       </c>
       <c r="AB9">
-        <v>4.4450000000000003</v>
+        <v>5.0522999999999998</v>
       </c>
       <c r="AC9">
-        <v>3.81</v>
+        <v>7.0719500000000002</v>
       </c>
       <c r="AD9">
-        <v>4.6779999999999999</v>
+        <v>5.8913500000000001</v>
       </c>
       <c r="AE9">
-        <v>5.44</v>
+        <v>3.8690000000000002</v>
       </c>
       <c r="AF9">
-        <v>4.1559999999999997</v>
+        <v>5.3055000000000003</v>
       </c>
       <c r="AG9">
-        <v>2.673</v>
+        <v>5.0029500000000002</v>
       </c>
       <c r="AH9">
-        <v>3.3530000000000002</v>
+        <v>5.9805999999999999</v>
       </c>
       <c r="AI9">
-        <v>1.6679999999999999</v>
+        <v>6.8996000000000004</v>
       </c>
       <c r="AJ9">
-        <v>4.7359999999999998</v>
+        <v>4.6991500000000004</v>
       </c>
       <c r="AK9">
-        <v>4.2140000000000004</v>
+        <v>4.0632999999999999</v>
       </c>
       <c r="AL9">
-        <v>3.9249999999999998</v>
+        <v>5.5164499999999999</v>
       </c>
       <c r="AM9">
-        <v>3.3530000000000002</v>
+        <v>5.9805999999999999</v>
       </c>
       <c r="AN9">
-        <v>5.0869999999999997</v>
+        <v>4.4432499999999999</v>
       </c>
       <c r="AO9">
-        <v>2.8420000000000001</v>
+        <v>6.7552500000000002</v>
       </c>
       <c r="AP9">
-        <v>2.448</v>
+        <v>9.0823</v>
       </c>
       <c r="AQ9">
-        <v>4.6779999999999999</v>
+        <v>5.8913500000000001</v>
       </c>
       <c r="AR9">
-        <v>3.524</v>
+        <v>6.8829000000000002</v>
       </c>
       <c r="AS9">
-        <v>3.581</v>
+        <v>4.9907000000000004</v>
       </c>
       <c r="AT9">
-        <v>2.448</v>
+        <v>9.0823</v>
       </c>
       <c r="AU9">
-        <v>3.8679999999999999</v>
+        <v>5.827</v>
       </c>
       <c r="AV9">
-        <v>4.1559999999999997</v>
+        <v>5.3160499999999997</v>
       </c>
       <c r="AW9">
-        <v>3.4670000000000001</v>
+        <v>5.0673000000000004</v>
       </c>
       <c r="AX9">
-        <v>3.9249999999999998</v>
+        <v>5.5164499999999999</v>
       </c>
       <c r="AY9">
-        <v>3.2389999999999999</v>
+        <v>6.6255499999999996</v>
       </c>
       <c r="AZ9">
-        <v>6.2720000000000002</v>
+        <v>2.6411500000000001</v>
       </c>
       <c r="BA9">
-        <v>2.9550000000000001</v>
+        <v>4.6708999999999996</v>
       </c>
       <c r="BB9">
-        <v>3.4670000000000001</v>
+        <v>5.0673000000000004</v>
       </c>
       <c r="BC9">
-        <v>2.673</v>
+        <v>5.0029500000000002</v>
       </c>
       <c r="BD9">
-        <v>1.613</v>
+        <v>6.2733999999999996</v>
       </c>
       <c r="BE9">
-        <v>1.4470000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BF9">
-        <v>3.581</v>
+        <v>4.9907000000000004</v>
       </c>
       <c r="BG9">
-        <v>3.81</v>
+        <v>7.0719500000000002</v>
       </c>
       <c r="BH9">
-        <v>3.41</v>
+        <v>4.8883999999999999</v>
       </c>
       <c r="BI9">
-        <v>1.4470000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="BJ9">
-        <v>2.8420000000000001</v>
+        <v>6.7552500000000002</v>
       </c>
       <c r="BK9">
-        <v>6.8129999999999997</v>
+        <v>3.0586500000000001</v>
       </c>
       <c r="BL9">
-        <v>3.81</v>
+        <v>5.4903000000000004</v>
       </c>
       <c r="BM9">
-        <v>2.9550000000000001</v>
+        <v>4.6708999999999996</v>
       </c>
       <c r="BN9">
-        <v>4.2140000000000004</v>
+        <v>4.0632999999999999</v>
       </c>
       <c r="BO9">
-        <v>3.581</v>
+        <v>4.7618</v>
       </c>
       <c r="BP9">
-        <v>7.1760000000000002</v>
+        <v>6.3299999999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1">
-        <v>12824394</v>
+        <v>7737131</v>
       </c>
       <c r="E10">
-        <v>621.4</v>
+        <v>6.8819999999999997</v>
       </c>
       <c r="F10">
-        <v>621.4</v>
+        <v>5.26</v>
       </c>
       <c r="G10">
-        <v>621.4</v>
+        <v>3.9950000000000001</v>
       </c>
       <c r="H10">
-        <v>621.4</v>
+        <v>6.6980000000000004</v>
       </c>
       <c r="I10">
-        <v>622.4</v>
+        <v>3.516</v>
       </c>
       <c r="J10">
-        <v>622.4</v>
+        <v>3.6190000000000002</v>
       </c>
       <c r="K10">
-        <v>622.4</v>
+        <v>3.625</v>
       </c>
       <c r="L10">
-        <v>622.4</v>
+        <v>4.4710000000000001</v>
       </c>
       <c r="M10">
-        <v>622.4</v>
+        <v>3.879</v>
       </c>
       <c r="N10">
-        <v>622.4</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="O10">
-        <v>622.4</v>
+        <v>3.782</v>
       </c>
       <c r="P10">
-        <v>622.4</v>
+        <v>4.4710000000000001</v>
       </c>
       <c r="Q10">
-        <v>621.4</v>
+        <v>3.0470000000000002</v>
       </c>
       <c r="R10">
-        <v>621.4</v>
+        <v>4.1529999999999996</v>
       </c>
       <c r="S10">
-        <v>621.4</v>
+        <v>2.1850000000000001</v>
       </c>
       <c r="T10">
-        <v>621.4</v>
+        <v>6.6980000000000004</v>
       </c>
       <c r="U10">
-        <v>621.4</v>
+        <v>3.9580000000000002</v>
       </c>
       <c r="V10">
-        <v>621.4</v>
+        <v>2.8319999999999999</v>
       </c>
       <c r="W10">
-        <v>621.4</v>
+        <v>2.6709999999999998</v>
       </c>
       <c r="X10">
-        <v>621.4</v>
+        <v>2.1850000000000001</v>
       </c>
       <c r="Y10">
-        <v>622.4</v>
+        <v>5</v>
       </c>
       <c r="Z10">
-        <v>622.4</v>
+        <v>3.3109999999999999</v>
       </c>
       <c r="AA10">
-        <v>622.4</v>
+        <v>4.5019999999999998</v>
       </c>
       <c r="AB10">
-        <v>622.4</v>
+        <v>3.782</v>
       </c>
       <c r="AC10">
-        <v>622.4</v>
+        <v>2.57</v>
       </c>
       <c r="AD10">
-        <v>622.4</v>
+        <v>3.2749999999999999</v>
       </c>
       <c r="AE10">
-        <v>622.4</v>
+        <v>4.5019999999999998</v>
       </c>
       <c r="AF10">
-        <v>622.4</v>
+        <v>3.625</v>
       </c>
       <c r="AG10">
-        <v>621.4</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="AH10">
-        <v>621.4</v>
+        <v>3.2210000000000001</v>
       </c>
       <c r="AI10">
-        <v>621.4</v>
+        <v>2.6709999999999998</v>
       </c>
       <c r="AJ10">
-        <v>621.4</v>
+        <v>3.9950000000000001</v>
       </c>
       <c r="AK10">
-        <v>621.4</v>
+        <v>4.3849999999999998</v>
       </c>
       <c r="AL10">
-        <v>621.4</v>
+        <v>3.4980000000000002</v>
       </c>
       <c r="AM10">
-        <v>621.4</v>
+        <v>3.2210000000000001</v>
       </c>
       <c r="AN10">
-        <v>621.4</v>
+        <v>4.1529999999999996</v>
       </c>
       <c r="AO10">
-        <v>622.4</v>
+        <v>2.754</v>
       </c>
       <c r="AP10">
-        <v>622.4</v>
+        <v>1.387</v>
       </c>
       <c r="AQ10">
-        <v>622.4</v>
+        <v>3.2749999999999999</v>
       </c>
       <c r="AR10">
-        <v>622.4</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="AS10">
-        <v>622.4</v>
+        <v>3.819</v>
       </c>
       <c r="AT10">
-        <v>622.4</v>
+        <v>1.387</v>
       </c>
       <c r="AU10">
-        <v>622.4</v>
+        <v>3.3109999999999999</v>
       </c>
       <c r="AV10">
-        <v>622.4</v>
+        <v>3.6190000000000002</v>
       </c>
       <c r="AW10">
-        <v>621.4</v>
+        <v>3.77</v>
       </c>
       <c r="AX10">
-        <v>621.4</v>
+        <v>3.4980000000000002</v>
       </c>
       <c r="AY10">
-        <v>621.4</v>
+        <v>2.8319999999999999</v>
       </c>
       <c r="AZ10">
-        <v>621.4</v>
+        <v>5.26</v>
       </c>
       <c r="BA10">
-        <v>621.4</v>
+        <v>4.0129999999999999</v>
       </c>
       <c r="BB10">
-        <v>621.4</v>
+        <v>3.77</v>
       </c>
       <c r="BC10">
-        <v>621.4</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="BD10">
-        <v>621.4</v>
+        <v>3.0470000000000002</v>
       </c>
       <c r="BE10">
-        <v>622.4</v>
+        <v>2.1970000000000001</v>
       </c>
       <c r="BF10">
-        <v>622.4</v>
+        <v>3.819</v>
       </c>
       <c r="BG10">
-        <v>622.4</v>
+        <v>2.57</v>
       </c>
       <c r="BH10">
-        <v>622.4</v>
+        <v>3.879</v>
       </c>
       <c r="BI10">
-        <v>622.4</v>
+        <v>10</v>
       </c>
       <c r="BJ10">
-        <v>622.4</v>
+        <v>2.754</v>
       </c>
       <c r="BK10">
-        <v>622.4</v>
+        <v>5</v>
       </c>
       <c r="BL10">
-        <v>622.4</v>
+        <v>3.516</v>
       </c>
       <c r="BM10">
-        <v>621.4</v>
+        <v>4.0129999999999999</v>
       </c>
       <c r="BN10">
-        <v>621.4</v>
+        <v>4.3849999999999998</v>
       </c>
       <c r="BO10">
-        <v>621.4</v>
+        <v>3.9580000000000002</v>
       </c>
       <c r="BP10">
-        <v>621.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1">
-        <v>12824394</v>
+        <v>7737131</v>
       </c>
       <c r="E11">
-        <v>103.22259</v>
+        <v>7.1760000000000002</v>
       </c>
       <c r="F11">
-        <v>103.22259</v>
+        <v>6.2720000000000002</v>
       </c>
       <c r="G11">
-        <v>103.22259</v>
+        <v>4.7359999999999998</v>
       </c>
       <c r="H11">
-        <v>103.22259</v>
+        <v>7.2370000000000001</v>
       </c>
       <c r="I11">
-        <v>103.3887</v>
+        <v>3.81</v>
       </c>
       <c r="J11">
-        <v>103.3887</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="K11">
-        <v>103.3887</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="L11">
-        <v>103.3887</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="M11">
-        <v>103.3887</v>
+        <v>3.41</v>
       </c>
       <c r="N11">
-        <v>103.3887</v>
+        <v>3.524</v>
       </c>
       <c r="O11">
-        <v>103.3887</v>
+        <v>4.4450000000000003</v>
       </c>
       <c r="P11">
-        <v>103.3887</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="Q11">
-        <v>103.22259</v>
+        <v>1.613</v>
       </c>
       <c r="R11">
-        <v>103.22259</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="S11">
-        <v>103.22259</v>
+        <v>2.169</v>
       </c>
       <c r="T11">
-        <v>103.22259</v>
+        <v>7.2370000000000001</v>
       </c>
       <c r="U11">
-        <v>103.22259</v>
+        <v>3.581</v>
       </c>
       <c r="V11">
-        <v>103.22259</v>
+        <v>3.2389999999999999</v>
       </c>
       <c r="W11">
-        <v>103.22259</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="X11">
-        <v>103.22259</v>
+        <v>2.169</v>
       </c>
       <c r="Y11">
-        <v>103.3887</v>
+        <v>6.8129999999999997</v>
       </c>
       <c r="Z11">
-        <v>103.3887</v>
+        <v>3.8679999999999999</v>
       </c>
       <c r="AA11">
-        <v>103.3887</v>
+        <v>5.44</v>
       </c>
       <c r="AB11">
-        <v>103.3887</v>
+        <v>4.4450000000000003</v>
       </c>
       <c r="AC11">
-        <v>103.3887</v>
+        <v>3.81</v>
       </c>
       <c r="AD11">
-        <v>103.3887</v>
+        <v>4.6779999999999999</v>
       </c>
       <c r="AE11">
-        <v>103.3887</v>
+        <v>5.44</v>
       </c>
       <c r="AF11">
-        <v>103.3887</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="AG11">
-        <v>103.22259</v>
+        <v>2.673</v>
       </c>
       <c r="AH11">
-        <v>103.22259</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="AI11">
-        <v>103.22259</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="AJ11">
-        <v>103.22259</v>
+        <v>4.7359999999999998</v>
       </c>
       <c r="AK11">
-        <v>103.22259</v>
+        <v>4.2140000000000004</v>
       </c>
       <c r="AL11">
-        <v>103.22259</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="AM11">
-        <v>103.22259</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="AN11">
-        <v>103.22259</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="AO11">
-        <v>103.3887</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="AP11">
-        <v>103.3887</v>
+        <v>2.448</v>
       </c>
       <c r="AQ11">
-        <v>103.3887</v>
+        <v>4.6779999999999999</v>
       </c>
       <c r="AR11">
-        <v>103.3887</v>
+        <v>3.524</v>
       </c>
       <c r="AS11">
-        <v>103.3887</v>
+        <v>3.581</v>
       </c>
       <c r="AT11">
-        <v>103.3887</v>
+        <v>2.448</v>
       </c>
       <c r="AU11">
-        <v>103.3887</v>
+        <v>3.8679999999999999</v>
       </c>
       <c r="AV11">
-        <v>103.3887</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="AW11">
-        <v>103.22259</v>
+        <v>3.4670000000000001</v>
       </c>
       <c r="AX11">
-        <v>103.22259</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="AY11">
-        <v>103.22259</v>
+        <v>3.2389999999999999</v>
       </c>
       <c r="AZ11">
-        <v>103.22259</v>
+        <v>6.2720000000000002</v>
       </c>
       <c r="BA11">
-        <v>103.22259</v>
+        <v>2.9550000000000001</v>
       </c>
       <c r="BB11">
-        <v>103.22259</v>
+        <v>3.4670000000000001</v>
       </c>
       <c r="BC11">
-        <v>103.22259</v>
+        <v>2.673</v>
       </c>
       <c r="BD11">
-        <v>103.22259</v>
+        <v>1.613</v>
       </c>
       <c r="BE11">
-        <v>103.3887</v>
+        <v>1.4470000000000001</v>
       </c>
       <c r="BF11">
-        <v>103.3887</v>
+        <v>3.581</v>
       </c>
       <c r="BG11">
-        <v>103.3887</v>
+        <v>3.81</v>
       </c>
       <c r="BH11">
-        <v>103.3887</v>
+        <v>3.41</v>
       </c>
       <c r="BI11">
-        <v>103.3887</v>
+        <v>1.4470000000000001</v>
       </c>
       <c r="BJ11">
-        <v>103.3887</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="BK11">
-        <v>103.3887</v>
+        <v>6.8129999999999997</v>
       </c>
       <c r="BL11">
-        <v>103.3887</v>
+        <v>3.81</v>
       </c>
       <c r="BM11">
-        <v>103.22259</v>
+        <v>2.9550000000000001</v>
       </c>
       <c r="BN11">
-        <v>103.22259</v>
+        <v>4.2140000000000004</v>
       </c>
       <c r="BO11">
-        <v>103.22259</v>
+        <v>3.581</v>
       </c>
       <c r="BP11">
-        <v>103.22259</v>
+        <v>7.1760000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1">
-        <v>3806678</v>
+        <v>12824394</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>621.4</v>
       </c>
       <c r="F12">
-        <v>3.7</v>
+        <v>621.4</v>
       </c>
       <c r="G12">
-        <v>5.2</v>
+        <v>621.4</v>
       </c>
       <c r="H12">
-        <v>0.7</v>
+        <v>621.4</v>
       </c>
       <c r="I12">
-        <v>5.2</v>
+        <v>622.4</v>
       </c>
       <c r="J12">
-        <v>5.4</v>
+        <v>622.4</v>
       </c>
       <c r="K12">
-        <v>5.4</v>
+        <v>622.4</v>
       </c>
       <c r="L12">
-        <v>5.8</v>
+        <v>622.4</v>
       </c>
       <c r="M12">
-        <v>3.3</v>
+        <v>622.4</v>
       </c>
       <c r="N12">
-        <v>7.5</v>
+        <v>622.4</v>
       </c>
       <c r="O12">
-        <v>5.4</v>
+        <v>622.4</v>
       </c>
       <c r="P12">
-        <v>5.8</v>
+        <v>622.4</v>
       </c>
       <c r="Q12">
-        <v>2.8</v>
+        <v>621.4</v>
       </c>
       <c r="R12">
-        <v>5.3</v>
+        <v>621.4</v>
       </c>
       <c r="S12">
-        <v>6.7</v>
+        <v>621.4</v>
       </c>
       <c r="T12">
-        <v>0.7</v>
+        <v>621.4</v>
       </c>
       <c r="U12">
-        <v>3.3</v>
+        <v>621.4</v>
       </c>
       <c r="V12">
-        <v>6.5</v>
+        <v>621.4</v>
       </c>
       <c r="W12">
-        <v>4.2</v>
+        <v>621.4</v>
       </c>
       <c r="X12">
-        <v>6.7</v>
+        <v>621.4</v>
       </c>
       <c r="Y12">
-        <v>5.4</v>
+        <v>622.4</v>
       </c>
       <c r="Z12">
-        <v>6</v>
+        <v>622.4</v>
       </c>
       <c r="AA12">
-        <v>4.7</v>
+        <v>622.4</v>
       </c>
       <c r="AB12">
-        <v>5.4</v>
+        <v>622.4</v>
       </c>
       <c r="AC12">
-        <v>8.3000000000000007</v>
+        <v>622.4</v>
       </c>
       <c r="AD12">
-        <v>7.5</v>
+        <v>622.4</v>
       </c>
       <c r="AE12">
-        <v>4.7</v>
+        <v>622.4</v>
       </c>
       <c r="AF12">
-        <v>5.4</v>
+        <v>622.4</v>
       </c>
       <c r="AG12">
-        <v>2.2000000000000002</v>
+        <v>621.4</v>
       </c>
       <c r="AH12">
-        <v>5.4</v>
+        <v>621.4</v>
       </c>
       <c r="AI12">
-        <v>4.2</v>
+        <v>621.4</v>
       </c>
       <c r="AJ12">
-        <v>5.2</v>
+        <v>621.4</v>
       </c>
       <c r="AK12">
-        <v>3</v>
+        <v>621.4</v>
       </c>
       <c r="AL12">
-        <v>5.4</v>
+        <v>621.4</v>
       </c>
       <c r="AM12">
-        <v>5.4</v>
+        <v>621.4</v>
       </c>
       <c r="AN12">
-        <v>5.3</v>
+        <v>621.4</v>
       </c>
       <c r="AO12">
-        <v>6</v>
+        <v>622.4</v>
       </c>
       <c r="AP12">
-        <v>10</v>
+        <v>622.4</v>
       </c>
       <c r="AQ12">
-        <v>7.5</v>
+        <v>622.4</v>
       </c>
       <c r="AR12">
-        <v>7.5</v>
+        <v>622.4</v>
       </c>
       <c r="AS12">
-        <v>3.8</v>
+        <v>622.4</v>
       </c>
       <c r="AT12">
-        <v>10</v>
+        <v>622.4</v>
       </c>
       <c r="AU12">
-        <v>6</v>
+        <v>622.4</v>
       </c>
       <c r="AV12">
-        <v>5.4</v>
+        <v>622.4</v>
       </c>
       <c r="AW12">
-        <v>3.7</v>
+        <v>621.4</v>
       </c>
       <c r="AX12">
-        <v>5.4</v>
+        <v>621.4</v>
       </c>
       <c r="AY12">
-        <v>6.5</v>
+        <v>621.4</v>
       </c>
       <c r="AZ12">
-        <v>3.7</v>
+        <v>621.4</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>621.4</v>
       </c>
       <c r="BB12">
-        <v>3.7</v>
+        <v>621.4</v>
       </c>
       <c r="BC12">
-        <v>2.2000000000000002</v>
+        <v>621.4</v>
       </c>
       <c r="BD12">
-        <v>2.8</v>
+        <v>621.4</v>
       </c>
       <c r="BE12">
-        <v>5.4</v>
+        <v>622.4</v>
       </c>
       <c r="BF12">
-        <v>3.8</v>
+        <v>622.4</v>
       </c>
       <c r="BG12">
-        <v>8.3000000000000007</v>
+        <v>622.4</v>
       </c>
       <c r="BH12">
-        <v>3.3</v>
+        <v>622.4</v>
       </c>
       <c r="BI12">
-        <v>5.4</v>
+        <v>622.4</v>
       </c>
       <c r="BJ12">
-        <v>6</v>
+        <v>622.4</v>
       </c>
       <c r="BK12">
-        <v>5.4</v>
+        <v>622.4</v>
       </c>
       <c r="BL12">
-        <v>5.2</v>
+        <v>622.4</v>
       </c>
       <c r="BM12">
-        <v>2</v>
+        <v>621.4</v>
       </c>
       <c r="BN12">
-        <v>3</v>
+        <v>621.4</v>
       </c>
       <c r="BO12">
-        <v>3.3</v>
+        <v>621.4</v>
       </c>
       <c r="BP12">
-        <v>0</v>
+        <v>621.4</v>
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12824394</v>
+      </c>
+      <c r="E13">
+        <v>103.22259</v>
+      </c>
+      <c r="F13">
+        <v>103.22259</v>
+      </c>
+      <c r="G13">
+        <v>103.22259</v>
+      </c>
+      <c r="H13">
+        <v>103.22259</v>
+      </c>
+      <c r="I13">
+        <v>103.3887</v>
+      </c>
+      <c r="J13">
+        <v>103.3887</v>
+      </c>
+      <c r="K13">
+        <v>103.3887</v>
+      </c>
+      <c r="L13">
+        <v>103.3887</v>
+      </c>
+      <c r="M13">
+        <v>103.3887</v>
+      </c>
+      <c r="N13">
+        <v>103.3887</v>
+      </c>
+      <c r="O13">
+        <v>103.3887</v>
+      </c>
+      <c r="P13">
+        <v>103.3887</v>
+      </c>
+      <c r="Q13">
+        <v>103.22259</v>
+      </c>
+      <c r="R13">
+        <v>103.22259</v>
+      </c>
+      <c r="S13">
+        <v>103.22259</v>
+      </c>
+      <c r="T13">
+        <v>103.22259</v>
+      </c>
+      <c r="U13">
+        <v>103.22259</v>
+      </c>
+      <c r="V13">
+        <v>103.22259</v>
+      </c>
+      <c r="W13">
+        <v>103.22259</v>
+      </c>
+      <c r="X13">
+        <v>103.22259</v>
+      </c>
+      <c r="Y13">
+        <v>103.3887</v>
+      </c>
+      <c r="Z13">
+        <v>103.3887</v>
+      </c>
+      <c r="AA13">
+        <v>103.3887</v>
+      </c>
+      <c r="AB13">
+        <v>103.3887</v>
+      </c>
+      <c r="AC13">
+        <v>103.3887</v>
+      </c>
+      <c r="AD13">
+        <v>103.3887</v>
+      </c>
+      <c r="AE13">
+        <v>103.3887</v>
+      </c>
+      <c r="AF13">
+        <v>103.3887</v>
+      </c>
+      <c r="AG13">
+        <v>103.22259</v>
+      </c>
+      <c r="AH13">
+        <v>103.22259</v>
+      </c>
+      <c r="AI13">
+        <v>103.22259</v>
+      </c>
+      <c r="AJ13">
+        <v>103.22259</v>
+      </c>
+      <c r="AK13">
+        <v>103.22259</v>
+      </c>
+      <c r="AL13">
+        <v>103.22259</v>
+      </c>
+      <c r="AM13">
+        <v>103.22259</v>
+      </c>
+      <c r="AN13">
+        <v>103.22259</v>
+      </c>
+      <c r="AO13">
+        <v>103.3887</v>
+      </c>
+      <c r="AP13">
+        <v>103.3887</v>
+      </c>
+      <c r="AQ13">
+        <v>103.3887</v>
+      </c>
+      <c r="AR13">
+        <v>103.3887</v>
+      </c>
+      <c r="AS13">
+        <v>103.3887</v>
+      </c>
+      <c r="AT13">
+        <v>103.3887</v>
+      </c>
+      <c r="AU13">
+        <v>103.3887</v>
+      </c>
+      <c r="AV13">
+        <v>103.3887</v>
+      </c>
+      <c r="AW13">
+        <v>103.22259</v>
+      </c>
+      <c r="AX13">
+        <v>103.22259</v>
+      </c>
+      <c r="AY13">
+        <v>103.22259</v>
+      </c>
+      <c r="AZ13">
+        <v>103.22259</v>
+      </c>
+      <c r="BA13">
+        <v>103.22259</v>
+      </c>
+      <c r="BB13">
+        <v>103.22259</v>
+      </c>
+      <c r="BC13">
+        <v>103.22259</v>
+      </c>
+      <c r="BD13">
+        <v>103.22259</v>
+      </c>
+      <c r="BE13">
+        <v>103.3887</v>
+      </c>
+      <c r="BF13">
+        <v>103.3887</v>
+      </c>
+      <c r="BG13">
+        <v>103.3887</v>
+      </c>
+      <c r="BH13">
+        <v>103.3887</v>
+      </c>
+      <c r="BI13">
+        <v>103.3887</v>
+      </c>
+      <c r="BJ13">
+        <v>103.3887</v>
+      </c>
+      <c r="BK13">
+        <v>103.3887</v>
+      </c>
+      <c r="BL13">
+        <v>103.3887</v>
+      </c>
+      <c r="BM13">
+        <v>103.22259</v>
+      </c>
+      <c r="BN13">
+        <v>103.22259</v>
+      </c>
+      <c r="BO13">
+        <v>103.22259</v>
+      </c>
+      <c r="BP13">
+        <v>103.22259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3806678</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3.7</v>
+      </c>
+      <c r="G14">
+        <v>5.2</v>
+      </c>
+      <c r="H14">
+        <v>0.7</v>
+      </c>
+      <c r="I14">
+        <v>5.2</v>
+      </c>
+      <c r="J14">
+        <v>5.4</v>
+      </c>
+      <c r="K14">
+        <v>5.4</v>
+      </c>
+      <c r="L14">
+        <v>5.8</v>
+      </c>
+      <c r="M14">
+        <v>3.3</v>
+      </c>
+      <c r="N14">
+        <v>7.5</v>
+      </c>
+      <c r="O14">
+        <v>5.4</v>
+      </c>
+      <c r="P14">
+        <v>5.8</v>
+      </c>
+      <c r="Q14">
+        <v>2.8</v>
+      </c>
+      <c r="R14">
+        <v>5.3</v>
+      </c>
+      <c r="S14">
+        <v>6.7</v>
+      </c>
+      <c r="T14">
+        <v>0.7</v>
+      </c>
+      <c r="U14">
+        <v>3.3</v>
+      </c>
+      <c r="V14">
+        <v>6.5</v>
+      </c>
+      <c r="W14">
+        <v>4.2</v>
+      </c>
+      <c r="X14">
+        <v>6.7</v>
+      </c>
+      <c r="Y14">
+        <v>5.4</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>4.7</v>
+      </c>
+      <c r="AB14">
+        <v>5.4</v>
+      </c>
+      <c r="AC14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AD14">
+        <v>7.5</v>
+      </c>
+      <c r="AE14">
+        <v>4.7</v>
+      </c>
+      <c r="AF14">
+        <v>5.4</v>
+      </c>
+      <c r="AG14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH14">
+        <v>5.4</v>
+      </c>
+      <c r="AI14">
+        <v>4.2</v>
+      </c>
+      <c r="AJ14">
+        <v>5.2</v>
+      </c>
+      <c r="AK14">
+        <v>3</v>
+      </c>
+      <c r="AL14">
+        <v>5.4</v>
+      </c>
+      <c r="AM14">
+        <v>5.4</v>
+      </c>
+      <c r="AN14">
+        <v>5.3</v>
+      </c>
+      <c r="AO14">
+        <v>6</v>
+      </c>
+      <c r="AP14">
+        <v>10</v>
+      </c>
+      <c r="AQ14">
+        <v>7.5</v>
+      </c>
+      <c r="AR14">
+        <v>7.5</v>
+      </c>
+      <c r="AS14">
+        <v>3.8</v>
+      </c>
+      <c r="AT14">
+        <v>10</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
+        <v>5.4</v>
+      </c>
+      <c r="AW14">
+        <v>3.7</v>
+      </c>
+      <c r="AX14">
+        <v>5.4</v>
+      </c>
+      <c r="AY14">
+        <v>6.5</v>
+      </c>
+      <c r="AZ14">
+        <v>3.7</v>
+      </c>
+      <c r="BA14">
+        <v>2</v>
+      </c>
+      <c r="BB14">
+        <v>3.7</v>
+      </c>
+      <c r="BC14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD14">
+        <v>2.8</v>
+      </c>
+      <c r="BE14">
+        <v>5.4</v>
+      </c>
+      <c r="BF14">
+        <v>3.8</v>
+      </c>
+      <c r="BG14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="BH14">
+        <v>3.3</v>
+      </c>
+      <c r="BI14">
+        <v>5.4</v>
+      </c>
+      <c r="BJ14">
+        <v>6</v>
+      </c>
+      <c r="BK14">
+        <v>5.4</v>
+      </c>
+      <c r="BL14">
+        <v>5.2</v>
+      </c>
+      <c r="BM14">
+        <v>2</v>
+      </c>
+      <c r="BN14">
+        <v>3</v>
+      </c>
+      <c r="BO14">
+        <v>3.3</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1">
         <v>3806678</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>7.0449999999999999</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>4.8570000000000002</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>3.992</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>6.6239999999999997</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>3.992</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <v>3.65</v>
       </c>
-      <c r="M13">
+      <c r="M15">
         <v>5.0890000000000004</v>
       </c>
-      <c r="N13">
+      <c r="N15">
         <v>2.6909999999999998</v>
       </c>
-      <c r="O13">
+      <c r="O15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="P13">
+      <c r="P15">
         <v>3.65</v>
       </c>
-      <c r="Q13">
+      <c r="Q15">
         <v>5.3810000000000002</v>
       </c>
-      <c r="R13">
+      <c r="R15">
         <v>3.9350000000000001</v>
       </c>
-      <c r="S13">
+      <c r="S15">
         <v>3.14</v>
       </c>
-      <c r="T13">
+      <c r="T15">
         <v>6.6239999999999997</v>
       </c>
-      <c r="U13">
+      <c r="U15">
         <v>5.0890000000000004</v>
       </c>
-      <c r="V13">
+      <c r="V15">
         <v>3.2530000000000001</v>
       </c>
-      <c r="W13">
+      <c r="W15">
         <v>4.5670000000000002</v>
       </c>
-      <c r="X13">
+      <c r="X15">
         <v>3.14</v>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="Z13">
+      <c r="Z15">
         <v>3.536</v>
       </c>
-      <c r="AA13">
+      <c r="AA15">
         <v>4.2789999999999999</v>
       </c>
-      <c r="AB13">
+      <c r="AB15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="AC13">
+      <c r="AC15">
         <v>2.2450000000000001</v>
       </c>
-      <c r="AD13">
+      <c r="AD15">
         <v>2.6909999999999998</v>
       </c>
-      <c r="AE13">
+      <c r="AE15">
         <v>4.2789999999999999</v>
       </c>
-      <c r="AF13">
+      <c r="AF15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="AG13">
+      <c r="AG15">
         <v>5.734</v>
       </c>
-      <c r="AH13">
+      <c r="AH15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="AI13">
+      <c r="AI15">
         <v>4.5670000000000002</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ15">
         <v>3.992</v>
       </c>
-      <c r="AK13">
+      <c r="AK15">
         <v>5.2640000000000002</v>
       </c>
-      <c r="AL13">
+      <c r="AL15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="AM13">
+      <c r="AM15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="AN13">
+      <c r="AN15">
         <v>3.9350000000000001</v>
       </c>
-      <c r="AO13">
+      <c r="AO15">
         <v>3.536</v>
       </c>
-      <c r="AP13">
+      <c r="AP15">
         <v>1.3089999999999999</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ15">
         <v>2.6909999999999998</v>
       </c>
-      <c r="AR13">
+      <c r="AR15">
         <v>2.6909999999999998</v>
       </c>
-      <c r="AS13">
+      <c r="AS15">
         <v>4.7990000000000004</v>
       </c>
-      <c r="AT13">
+      <c r="AT15">
         <v>1.3089999999999999</v>
       </c>
-      <c r="AU13">
+      <c r="AU15">
         <v>3.536</v>
       </c>
-      <c r="AV13">
+      <c r="AV15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="AW13">
+      <c r="AW15">
         <v>4.8570000000000002</v>
       </c>
-      <c r="AX13">
+      <c r="AX15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="AY13">
+      <c r="AY15">
         <v>3.2530000000000001</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ15">
         <v>4.8570000000000002</v>
       </c>
-      <c r="BA13">
+      <c r="BA15">
         <v>5.8520000000000003</v>
       </c>
-      <c r="BB13">
+      <c r="BB15">
         <v>4.8570000000000002</v>
       </c>
-      <c r="BC13">
+      <c r="BC15">
         <v>5.734</v>
       </c>
-      <c r="BD13">
+      <c r="BD15">
         <v>5.3810000000000002</v>
       </c>
-      <c r="BE13">
+      <c r="BE15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="BF13">
+      <c r="BF15">
         <v>4.7990000000000004</v>
       </c>
-      <c r="BG13">
+      <c r="BG15">
         <v>2.2450000000000001</v>
       </c>
-      <c r="BH13">
+      <c r="BH15">
         <v>5.0890000000000004</v>
       </c>
-      <c r="BI13">
+      <c r="BI15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ15">
         <v>3.536</v>
       </c>
-      <c r="BK13">
+      <c r="BK15">
         <v>3.8780000000000001</v>
       </c>
-      <c r="BL13">
+      <c r="BL15">
         <v>3.992</v>
       </c>
-      <c r="BM13">
+      <c r="BM15">
         <v>5.8520000000000003</v>
       </c>
-      <c r="BN13">
+      <c r="BN15">
         <v>5.2640000000000002</v>
       </c>
-      <c r="BO13">
+      <c r="BO15">
         <v>5.0890000000000004</v>
       </c>
-      <c r="BP13">
+      <c r="BP15">
         <v>7.0449999999999999</v>
       </c>
     </row>
